--- a/Manual/PCB LGR BOM Rev1.0.xlsx
+++ b/Manual/PCB LGR BOM Rev1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Exchange\Projects\0079 CPF-NIGM-0079 ODNP resonator\System Components\Loop-gap resonator\Phase II\PCB LGR\Manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tkeller\Repositories\OpenPCBLGR\Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E3AF940-D285-4BC0-B8FA-64F251EA6323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48198C-5F3A-4615-9072-994F675FE344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93230D16-BCCB-4C11-9440-E15493A7B9C5}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>BOM for PCB LGR</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/remington-industries/30SNSP-125/11614448</t>
+  </si>
+  <si>
+    <t>2057-RF1-106-D-00-50-HDW-ND</t>
+  </si>
+  <si>
+    <t>BNC STRAIGHT BULKHEAD SKT 50 OHM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adam-tech/RF1-106-D-00-50-HDW/9830449</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
   </si>
 </sst>
 </file>
@@ -538,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C6D9C5-3E01-4B6C-9E8C-914FD4D1E519}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +572,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2">
+        <f>SUM(G:G)</f>
+        <v>139.17959999999997</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -642,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" ref="G7:G22" si="0">E7*F7</f>
+        <f t="shared" ref="G7:G23" si="0">E7*F7</f>
         <v>1</v>
       </c>
     </row>
@@ -1033,6 +1052,33 @@
       </c>
       <c r="H22" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.48</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Manual/PCB LGR BOM Rev1.0.xlsx
+++ b/Manual/PCB LGR BOM Rev1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tkeller\Repositories\OpenPCBLGR\Manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tmaly/Documents/Repositories/OpenPCBLGR/Manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48198C-5F3A-4615-9072-994F675FE344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBE2E76-6811-CF43-9DA3-DF7F6D7FD3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93230D16-BCCB-4C11-9440-E15493A7B9C5}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{93230D16-BCCB-4C11-9440-E15493A7B9C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>BOM for PCB LGR</t>
   </si>
@@ -139,30 +139,6 @@
     <t>COPPER TAPE 0.250 WD 4.000 LG</t>
   </si>
   <si>
-    <t>https://www.fairviewmicrowave.com/141-low-loss-semirigid-coax-cable-copper-straight-fmbc007-p.aspx</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/92185A083/</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/76555A725/</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/76555A721/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/amphenol-rf/132104/2628823</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/91780A023/</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/92511A129/</t>
-  </si>
-  <si>
-    <t>https://www.mcmaster.com/93225A413/</t>
-  </si>
-  <si>
     <t>PCB LGR SHIELD</t>
   </si>
   <si>
@@ -181,27 +157,34 @@
     <t>30 AWG MAGNET WIRE</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/remington-industries/30SNSP-125/11614448</t>
-  </si>
-  <si>
     <t>2057-RF1-106-D-00-50-HDW-ND</t>
   </si>
   <si>
     <t>BNC STRAIGHT BULKHEAD SKT 50 OHM</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/adam-tech/RF1-106-D-00-50-HDW/9830449</t>
-  </si>
-  <si>
-    <t>Total Cost:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,18 +209,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,539 +541,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C6D9C5-3E01-4B6C-9E8C-914FD4D1E519}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="97.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="2">
-        <f>SUM(G:G)</f>
-        <v>139.17959999999997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
         <v>44757</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>121003116</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <f>E6*F6</f>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <f>F7*G7</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="1">
         <v>121003117</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" ref="G7:G23" si="0">E7*F7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H24" si="0">F8*G8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C9" s="1">
         <v>121003118</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <v>1.72</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>13.76</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="I10" s="4" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/92511A129/","Link to McMaster")</f>
+        <v>Link to McMaster</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <v>0.44</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>7.04</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="I11" s="4" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/91780A023/","Link to McMaster")</f>
+        <v>Link to McMaster</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <f>17.27 / 25</f>
         <v>0.69079999999999997</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>2.7631999999999999</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="I12" s="4" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/93225A413/","Link to McMaster")</f>
+        <v>Link to McMaster</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
         <v>6.05</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="I13" s="4" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/amphenol-rf/132104/2628823","Link to DigiKey")</f>
+        <v>Link to DigiKey</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
         <v>19.79</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>19.79</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="I14" s="4" t="str">
+        <f>HYPERLINK("https://www.fairviewmicrowave.com/141-low-loss-semirigid-coax-cable-copper-straight-fmbc007-p.aspx","Link to Fairview Microwave")</f>
+        <v>Link to Fairview Microwave</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C15" s="1">
         <v>121003119</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <v>8.91</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>17.82</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I16" s="4" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/76555A721/","Link to McMaster")</f>
+        <v>Link to McMaster</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>50.61</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>50.61</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="I17" s="4" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/76555A725/","Link to McMaster")</f>
+        <v>Link to McMaster</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <f>3.79/25</f>
         <v>0.15160000000000001</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>0.60640000000000005</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I18" s="4" t="str">
+        <f>HYPERLINK("https://www.mcmaster.com/92185A083/","Link to McMaster")</f>
+        <v>Link to McMaster</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>121003107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>121003108</v>
+      </c>
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>121003107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E20" t="s">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1">
-        <v>121003108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>121003143</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1">
+        <v>121003110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
-        <v>121003143</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1">
-        <v>121003110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>11.26</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
+        <v>11.26</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/remington-industries/30SNSP-125/11614448","Link to DigiKey")</f>
+        <v>Link to DigiKey</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
         <v>15</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>11.26</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>11.26</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
         <v>1.48</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
         <v>1.48</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>51</v>
+      <c r="I24" s="4" t="str">
+        <f>HYPERLINK("https://www.digikey.com/en/products/detail/adam-tech/RF1-106-D-00-50-HDW/9830449","Link to DigiKey")</f>
+        <v>Link to DigiKey</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I16" r:id="rId1" display="https://www.mcmaster.com/76555A721/" xr:uid="{2340267F-16BF-A344-B5E2-927247D7A2E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>